--- a/Part_2_tables/total_counts.xlsx
+++ b/Part_2_tables/total_counts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -470,23 +470,56 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>Attempt failed</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
+      <c r="B6" t="n">
+        <v>54</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Part_2_tables/total_counts.xlsx
+++ b/Part_2_tables/total_counts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,69 +457,290 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>3198</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>504</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+          <t>401</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Attempt failed</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54</v>
+        <v>1478</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>104</v>
+      </c>
+      <c r="C7" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>406</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Attempt failed</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5159</v>
+      </c>
+      <c r="C26" t="n">
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/Part_2_tables/total_counts.xlsx
+++ b/Part_2_tables/total_counts.xlsx
@@ -1,43 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/Part_2_tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D64AE5E-45AA-7642-9E45-EF6AD4CFC6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="34620" yWindow="1240" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Status code</t>
+  </si>
+  <si>
+    <t>openalex count</t>
+  </si>
+  <si>
+    <t>crossref count</t>
+  </si>
+  <si>
+    <t>oa_percent</t>
+  </si>
+  <si>
+    <t>cr_percent</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>Attempt failed</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Atkinson Hyperlegible Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Atkinson Hyperlegible Regular"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +164,57 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,328 +502,443 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="4" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="8.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Status code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>openalex count</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>crossref count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3198</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6232</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3194</v>
+      </c>
+      <c r="C2" s="10">
+        <v>31.98</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6227</v>
+      </c>
+      <c r="E2" s="11">
+        <v>61.67</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
         <v>14</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="C3" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>401</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+      <c r="E4" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>403</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="E5" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7">
         <v>1478</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="10">
+        <v>14.8</v>
+      </c>
+      <c r="D6" s="7">
         <v>2879</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="E6" s="11">
+        <v>28.51</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7">
         <v>104</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="D7" s="7">
         <v>74</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>405</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="E7" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>406</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+      <c r="E8" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D9" s="7">
         <v>82</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>409</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="E9" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="C10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7">
         <v>4</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>415</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="E11" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>429</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="C12" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="7">
         <v>3</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>447</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
+      <c r="C13" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>468</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+      <c r="E14" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7">
         <v>2</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+      <c r="C15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7">
         <v>10</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>502</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+      <c r="E16" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="7">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="D17" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>503</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+      <c r="E17" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7">
         <v>8</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>504</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+      <c r="C18" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="7">
         <v>1</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
+      <c r="C19" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>523</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
+      <c r="E20" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+      <c r="E21" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="7">
         <v>1</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>526</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+      <c r="C22" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="7">
         <v>1</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>530</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+      <c r="C23" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="7">
         <v>1</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
+      <c r="C24" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Attempt failed</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>5159</v>
-      </c>
-      <c r="C26" t="n">
+      <c r="E25" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="7">
+        <v>5158</v>
+      </c>
+      <c r="C26" s="10">
+        <v>51.64</v>
+      </c>
+      <c r="D26" s="7">
         <v>678</v>
       </c>
+      <c r="E26" s="11">
+        <v>6.71</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="3">
+        <f>SUM(B4:B26)</f>
+        <v>6781</v>
+      </c>
+      <c r="C28" s="3">
+        <f>SUM(C4:C26)</f>
+        <v>67.94</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="C28:E28" si="0">SUM(D4:D26)</f>
+        <v>3762</v>
+      </c>
+      <c r="E28" s="3">
+        <f>SUM(E4:E26)</f>
+        <v>37.25</v>
+      </c>
+      <c r="F28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
